--- a/Code/Results/Cases/Case_0_164/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_164/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9739339180554053</v>
+        <v>1.020349605984689</v>
       </c>
       <c r="D2">
-        <v>0.9838464233272356</v>
+        <v>1.022174629359064</v>
       </c>
       <c r="E2">
-        <v>0.9894204082009772</v>
+        <v>1.029836972115252</v>
       </c>
       <c r="F2">
-        <v>0.9906743464357204</v>
+        <v>1.037336229550243</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9969232293530602</v>
+        <v>1.02554721649973</v>
       </c>
       <c r="K2">
-        <v>0.9955354867939598</v>
+        <v>1.025009786906153</v>
       </c>
       <c r="L2">
-        <v>1.001029128147641</v>
+        <v>1.032649726007894</v>
       </c>
       <c r="M2">
-        <v>1.002265149733667</v>
+        <v>1.040127404791578</v>
       </c>
       <c r="N2">
-        <v>1.002506338836173</v>
+        <v>1.012499121358909</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9791785626659318</v>
+        <v>1.021463424500027</v>
       </c>
       <c r="D3">
-        <v>0.9881670962117097</v>
+        <v>1.023144942643183</v>
       </c>
       <c r="E3">
-        <v>0.9939815175982836</v>
+        <v>1.030864681332056</v>
       </c>
       <c r="F3">
-        <v>0.995945013910653</v>
+        <v>1.038536172828092</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.00025339627942</v>
+        <v>1.026297326841434</v>
       </c>
       <c r="K3">
-        <v>0.9989536541660721</v>
+        <v>1.025786262692901</v>
       </c>
       <c r="L3">
-        <v>1.004691989681977</v>
+        <v>1.03348507388885</v>
       </c>
       <c r="M3">
-        <v>1.006630043327909</v>
+        <v>1.041136101883477</v>
       </c>
       <c r="N3">
-        <v>1.003681905316706</v>
+        <v>1.012756310177493</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9824984031185821</v>
+        <v>1.022184695731987</v>
       </c>
       <c r="D4">
-        <v>0.9909084629276332</v>
+        <v>1.023773588947807</v>
       </c>
       <c r="E4">
-        <v>0.9968752724198121</v>
+        <v>1.031530533551314</v>
       </c>
       <c r="F4">
-        <v>0.9992892793052265</v>
+        <v>1.039313808765389</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.002360650093781</v>
+        <v>1.026782745325733</v>
       </c>
       <c r="K4">
-        <v>1.001117867582828</v>
+        <v>1.026288871349019</v>
       </c>
       <c r="L4">
-        <v>1.007011557026559</v>
+        <v>1.034025853867295</v>
       </c>
       <c r="M4">
-        <v>1.009396289674873</v>
+        <v>1.04178942196542</v>
       </c>
       <c r="N4">
-        <v>1.004424625327858</v>
+        <v>1.012922514777585</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.98387715109136</v>
+        <v>1.022488051932126</v>
       </c>
       <c r="D5">
-        <v>0.9920484411420205</v>
+        <v>1.024038060559988</v>
       </c>
       <c r="E5">
-        <v>0.9980785898028939</v>
+        <v>1.031810662680135</v>
       </c>
       <c r="F5">
-        <v>1.000680041221122</v>
+        <v>1.03964101271398</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.003235586170118</v>
+        <v>1.026986826549574</v>
       </c>
       <c r="K5">
-        <v>1.002016755206788</v>
+        <v>1.026500210362561</v>
       </c>
       <c r="L5">
-        <v>1.007975076079336</v>
+        <v>1.034253258650684</v>
       </c>
       <c r="M5">
-        <v>1.010545871323208</v>
+        <v>1.042064227717361</v>
       </c>
       <c r="N5">
-        <v>1.004732714373155</v>
+        <v>1.012992335863613</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9841076782633265</v>
+        <v>1.022538994635924</v>
       </c>
       <c r="D6">
-        <v>0.992239130820297</v>
+        <v>1.024082477569908</v>
       </c>
       <c r="E6">
-        <v>0.9982798729963082</v>
+        <v>1.031857709606912</v>
       </c>
       <c r="F6">
-        <v>1.000912686003805</v>
+        <v>1.039695968466208</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.003381861773516</v>
+        <v>1.02702109334905</v>
       </c>
       <c r="K6">
-        <v>1.002167052762828</v>
+        <v>1.026535697595033</v>
       </c>
       <c r="L6">
-        <v>1.008136186650679</v>
+        <v>1.034291444486444</v>
       </c>
       <c r="M6">
-        <v>1.010738124324083</v>
+        <v>1.042110377614219</v>
       </c>
       <c r="N6">
-        <v>1.004784204609149</v>
+        <v>1.013004056116885</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9825168915073221</v>
+        <v>1.022188748665937</v>
       </c>
       <c r="D7">
-        <v>0.9909237437779034</v>
+        <v>1.023777122089088</v>
       </c>
       <c r="E7">
-        <v>0.9968914024091704</v>
+        <v>1.031534275845472</v>
       </c>
       <c r="F7">
-        <v>0.9993079214547375</v>
+        <v>1.039318179757126</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.002372383508944</v>
+        <v>1.026785472224582</v>
       </c>
       <c r="K7">
-        <v>1.001129921015101</v>
+        <v>1.02629169510493</v>
       </c>
       <c r="L7">
-        <v>1.007024476693042</v>
+        <v>1.034028892221837</v>
       </c>
       <c r="M7">
-        <v>1.009411702161698</v>
+        <v>1.04179309334369</v>
       </c>
       <c r="N7">
-        <v>1.004428758148761</v>
+        <v>1.012923447932227</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9757221181328661</v>
+        <v>1.020725911381005</v>
       </c>
       <c r="D8">
-        <v>0.9853182073468669</v>
+        <v>1.022502387893733</v>
       </c>
       <c r="E8">
-        <v>0.9909741336679675</v>
+        <v>1.030184114099451</v>
       </c>
       <c r="F8">
-        <v>0.9924697260794503</v>
+        <v>1.037741509306101</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9980588004228641</v>
+        <v>1.025800710116415</v>
       </c>
       <c r="K8">
-        <v>0.996700795337651</v>
+        <v>1.02527216389456</v>
       </c>
       <c r="L8">
-        <v>1.002277770218402</v>
+        <v>1.032931983170498</v>
       </c>
       <c r="M8">
-        <v>1.00375267521915</v>
+        <v>1.040468169287144</v>
       </c>
       <c r="N8">
-        <v>1.002907434859357</v>
+        <v>1.012586083693492</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.963147390431123</v>
+        <v>1.018152436874262</v>
       </c>
       <c r="D9">
-        <v>0.9749984595694845</v>
+        <v>1.020262189021229</v>
       </c>
       <c r="E9">
-        <v>0.9800787628810551</v>
+        <v>1.027811508835152</v>
       </c>
       <c r="F9">
-        <v>0.9798800547816755</v>
+        <v>1.034972331664744</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9900721644084374</v>
+        <v>1.024065790219161</v>
       </c>
       <c r="K9">
-        <v>0.9885106261303573</v>
+        <v>1.023476974988261</v>
       </c>
       <c r="L9">
-        <v>0.9935035345394325</v>
+        <v>1.03100103196237</v>
       </c>
       <c r="M9">
-        <v>0.9933082227531238</v>
+        <v>1.038138265477069</v>
       </c>
       <c r="N9">
-        <v>1.000082133369635</v>
+        <v>1.011989974284119</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9543050242191867</v>
+        <v>1.016439591257138</v>
       </c>
       <c r="D10">
-        <v>0.9677830845505786</v>
+        <v>1.018772792231163</v>
       </c>
       <c r="E10">
-        <v>0.9724591158635092</v>
+        <v>1.026234173601192</v>
       </c>
       <c r="F10">
-        <v>0.971074493531859</v>
+        <v>1.033132319420463</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9844567181791084</v>
+        <v>1.022909411080321</v>
       </c>
       <c r="K10">
-        <v>0.9827594526585899</v>
+        <v>1.022281092265943</v>
       </c>
       <c r="L10">
-        <v>0.9873440943613382</v>
+        <v>1.029715031074178</v>
       </c>
       <c r="M10">
-        <v>0.9859864131628158</v>
+        <v>1.036588195265998</v>
       </c>
       <c r="N10">
-        <v>0.9980907755360847</v>
+        <v>1.011591480050356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9503536947344589</v>
+        <v>1.015698565473324</v>
       </c>
       <c r="D11">
-        <v>0.964569726679578</v>
+        <v>1.018128832288675</v>
       </c>
       <c r="E11">
-        <v>0.9690651349542433</v>
+        <v>1.025552212411625</v>
       </c>
       <c r="F11">
-        <v>0.9671515655035892</v>
+        <v>1.032337016077355</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9819482954774922</v>
+        <v>1.022408739773229</v>
       </c>
       <c r="K11">
-        <v>0.9801922337873692</v>
+        <v>1.021763476684016</v>
       </c>
       <c r="L11">
-        <v>0.9845950076463937</v>
+        <v>1.029158484755442</v>
       </c>
       <c r="M11">
-        <v>0.9827207311547306</v>
+        <v>1.035917752253727</v>
       </c>
       <c r="N11">
-        <v>0.9972002938187403</v>
+        <v>1.011418671126738</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9488663138146327</v>
+        <v>1.01542341187873</v>
       </c>
       <c r="D12">
-        <v>0.9633618818567082</v>
+        <v>1.01788978085279</v>
       </c>
       <c r="E12">
-        <v>0.9677892960362593</v>
+        <v>1.02529905698684</v>
       </c>
       <c r="F12">
-        <v>0.965676738836131</v>
+        <v>1.032041819855413</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9810042683848802</v>
+        <v>1.022222775200686</v>
       </c>
       <c r="K12">
-        <v>0.9792263622862238</v>
+        <v>1.021571242525713</v>
       </c>
       <c r="L12">
-        <v>0.9835607618678948</v>
+        <v>1.028951803568308</v>
       </c>
       <c r="M12">
-        <v>0.9814924462070702</v>
+        <v>1.035668831736868</v>
       </c>
       <c r="N12">
-        <v>0.996865044989918</v>
+        <v>1.0113544434857</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9491862743497483</v>
+        <v>1.015482428912444</v>
       </c>
       <c r="D13">
-        <v>0.9636216289596023</v>
+        <v>1.017941051683968</v>
       </c>
       <c r="E13">
-        <v>0.9680636700690866</v>
+        <v>1.025353352659628</v>
       </c>
       <c r="F13">
-        <v>0.9659939134488756</v>
+        <v>1.03210513073432</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9812073338987058</v>
+        <v>1.022262664917883</v>
       </c>
       <c r="K13">
-        <v>0.9794341137361688</v>
+        <v>1.021612475990709</v>
       </c>
       <c r="L13">
-        <v>0.9837832179178128</v>
+        <v>1.028996135357016</v>
       </c>
       <c r="M13">
-        <v>0.9817566244037282</v>
+        <v>1.035722220977581</v>
       </c>
       <c r="N13">
-        <v>0.9969371641028598</v>
+        <v>1.011368222283054</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9502311566100231</v>
+        <v>1.015675819230671</v>
       </c>
       <c r="D14">
-        <v>0.9644701821208447</v>
+        <v>1.018109069286104</v>
       </c>
       <c r="E14">
-        <v>0.9689599887968087</v>
+        <v>1.02553128333795</v>
       </c>
       <c r="F14">
-        <v>0.9670300234083746</v>
+        <v>1.032312610686158</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9818705170259439</v>
+        <v>1.022393367741351</v>
       </c>
       <c r="K14">
-        <v>0.9801126497754447</v>
+        <v>1.021747585910623</v>
       </c>
       <c r="L14">
-        <v>0.9845097888754996</v>
+        <v>1.029141399509654</v>
       </c>
       <c r="M14">
-        <v>0.9826195179166458</v>
+        <v>1.035897174126639</v>
       </c>
       <c r="N14">
-        <v>0.9971726750198462</v>
+        <v>1.011413362839077</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9508722951468654</v>
+        <v>1.015794986131469</v>
       </c>
       <c r="D15">
-        <v>0.9649910864446118</v>
+        <v>1.018212609549888</v>
       </c>
       <c r="E15">
-        <v>0.969510201388447</v>
+        <v>1.025640932876699</v>
       </c>
       <c r="F15">
-        <v>0.9676660268722846</v>
+        <v>1.032440474383947</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9822774748465308</v>
+        <v>1.022473898990778</v>
       </c>
       <c r="K15">
-        <v>0.9805290663550016</v>
+        <v>1.02183083573628</v>
       </c>
       <c r="L15">
-        <v>0.9849556908672805</v>
+        <v>1.029230907489905</v>
       </c>
       <c r="M15">
-        <v>0.9831491225519237</v>
+        <v>1.036004983346332</v>
       </c>
       <c r="N15">
-        <v>0.9973171791502102</v>
+        <v>1.011441170298477</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9545645732834618</v>
+        <v>1.016488784264059</v>
       </c>
       <c r="D16">
-        <v>0.9679943947040152</v>
+        <v>1.018815549923921</v>
       </c>
       <c r="E16">
-        <v>0.9726822905245591</v>
+        <v>1.026279454913947</v>
       </c>
       <c r="F16">
-        <v>0.9713324312498538</v>
+        <v>1.033185131246976</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9846215125177391</v>
+        <v>1.02294263998695</v>
       </c>
       <c r="K16">
-        <v>0.9829281484734339</v>
+        <v>1.022315449107855</v>
       </c>
       <c r="L16">
-        <v>0.9875247482891402</v>
+        <v>1.029751973530508</v>
       </c>
       <c r="M16">
-        <v>0.9862010588685207</v>
+        <v>1.036632706073421</v>
       </c>
       <c r="N16">
-        <v>0.9981492589842387</v>
+        <v>1.011602943375499</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9568469732641736</v>
+        <v>1.016924158244312</v>
       </c>
       <c r="D17">
-        <v>0.9698538489346441</v>
+        <v>1.019194015107871</v>
       </c>
       <c r="E17">
-        <v>0.974646080479086</v>
+        <v>1.026680259955463</v>
       </c>
       <c r="F17">
-        <v>0.973602027296448</v>
+        <v>1.033652618342809</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9860707785197986</v>
+        <v>1.023236681640314</v>
       </c>
       <c r="K17">
-        <v>0.9844119347781307</v>
+        <v>1.022619490252655</v>
       </c>
       <c r="L17">
-        <v>0.989113755668201</v>
+        <v>1.030078904773804</v>
       </c>
       <c r="M17">
-        <v>0.9880893006425412</v>
+        <v>1.037026659793874</v>
       </c>
       <c r="N17">
-        <v>0.9986634806475674</v>
+        <v>1.011704350266305</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9581665281393943</v>
+        <v>1.017178167073867</v>
       </c>
       <c r="D18">
-        <v>0.9709299080944289</v>
+        <v>1.019414859951583</v>
       </c>
       <c r="E18">
-        <v>0.9757824641507011</v>
+        <v>1.026914142668853</v>
       </c>
       <c r="F18">
-        <v>0.9749153068732683</v>
+        <v>1.033925434066817</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9869087441311393</v>
+        <v>1.023408195856578</v>
       </c>
       <c r="K18">
-        <v>0.9852700331108296</v>
+        <v>1.022796852535647</v>
       </c>
       <c r="L18">
-        <v>0.990032741030041</v>
+        <v>1.030269627252778</v>
       </c>
       <c r="M18">
-        <v>0.989181554180024</v>
+        <v>1.037256518498098</v>
       </c>
       <c r="N18">
-        <v>0.99896071319808</v>
+        <v>1.011763474262471</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9586145094487765</v>
+        <v>1.01726478815901</v>
       </c>
       <c r="D19">
-        <v>0.9712953953745149</v>
+        <v>1.019490178028921</v>
       </c>
       <c r="E19">
-        <v>0.9761684320711995</v>
+        <v>1.026993907584169</v>
       </c>
       <c r="F19">
-        <v>0.9753613470432098</v>
+        <v>1.034018480673861</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9871932405235425</v>
+        <v>1.023466678575723</v>
       </c>
       <c r="K19">
-        <v>0.9855613938723428</v>
+        <v>1.022857331926621</v>
       </c>
       <c r="L19">
-        <v>0.9903447817887119</v>
+        <v>1.030334663618961</v>
       </c>
       <c r="M19">
-        <v>0.9895524640236821</v>
+        <v>1.037334906630304</v>
       </c>
       <c r="N19">
-        <v>0.9990616102641933</v>
+        <v>1.011783629786303</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.956603315527679</v>
+        <v>1.016877440273005</v>
       </c>
       <c r="D20">
-        <v>0.969655235428772</v>
+        <v>1.0191533998076</v>
       </c>
       <c r="E20">
-        <v>0.9744363282993092</v>
+        <v>1.02663724703468</v>
       </c>
       <c r="F20">
-        <v>0.9733596189923405</v>
+        <v>1.033602447089505</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9859160530782668</v>
+        <v>1.023205133269757</v>
       </c>
       <c r="K20">
-        <v>0.9842535058902636</v>
+        <v>1.022586867424132</v>
       </c>
       <c r="L20">
-        <v>0.9889440882832728</v>
+        <v>1.030043825145954</v>
       </c>
       <c r="M20">
-        <v>0.9878876607139944</v>
+        <v>1.036984384826868</v>
       </c>
       <c r="N20">
-        <v>0.9986085909541059</v>
+        <v>1.011693472844304</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9499240189078845</v>
+        <v>1.015618867949066</v>
       </c>
       <c r="D21">
-        <v>0.9642207054777997</v>
+        <v>1.018059588316606</v>
       </c>
       <c r="E21">
-        <v>0.968696471859502</v>
+        <v>1.025478882902058</v>
       </c>
       <c r="F21">
-        <v>0.9667254124590318</v>
+        <v>1.032251507085556</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9816755715221407</v>
+        <v>1.022354878825014</v>
       </c>
       <c r="K21">
-        <v>0.9799131833643309</v>
+        <v>1.021707798543563</v>
       </c>
       <c r="L21">
-        <v>0.9842962005037239</v>
+        <v>1.029098621600024</v>
       </c>
       <c r="M21">
-        <v>0.9823658467051906</v>
+        <v>1.03584565170029</v>
       </c>
       <c r="N21">
-        <v>0.9971034487926607</v>
+        <v>1.011400071138333</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9456098964503667</v>
+        <v>1.014828110722075</v>
       </c>
       <c r="D22">
-        <v>0.960720801195351</v>
+        <v>1.017372698487876</v>
       </c>
       <c r="E22">
-        <v>0.9649993373275215</v>
+        <v>1.024751471951726</v>
       </c>
       <c r="F22">
-        <v>0.9624513146193956</v>
+        <v>1.031403360250183</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9789379119030607</v>
+        <v>1.021820330742941</v>
       </c>
       <c r="K22">
-        <v>0.9771127210958073</v>
+        <v>1.021155274152924</v>
       </c>
       <c r="L22">
-        <v>0.9812975813142115</v>
+        <v>1.028504594244827</v>
       </c>
       <c r="M22">
-        <v>0.9788052126728932</v>
+        <v>1.035130332009973</v>
       </c>
       <c r="N22">
-        <v>0.99613102409107</v>
+        <v>1.011215373908602</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9479082104790479</v>
+        <v>1.015247253587172</v>
       </c>
       <c r="D23">
-        <v>0.962584348170452</v>
+        <v>1.017736752859941</v>
       </c>
       <c r="E23">
-        <v>0.966967961806945</v>
+        <v>1.025137001161882</v>
       </c>
       <c r="F23">
-        <v>0.9647272562872281</v>
+        <v>1.031852861336366</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9803962363848763</v>
+        <v>1.022103701023302</v>
       </c>
       <c r="K23">
-        <v>0.9786043414662176</v>
+        <v>1.02144816067351</v>
       </c>
       <c r="L23">
-        <v>0.9828947214614403</v>
+        <v>1.028819474860521</v>
       </c>
       <c r="M23">
-        <v>0.980701532551245</v>
+        <v>1.035509475331173</v>
       </c>
       <c r="N23">
-        <v>0.9966490848173821</v>
+        <v>1.011313306599714</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9567134501274071</v>
+        <v>1.016898549919705</v>
       </c>
       <c r="D24">
-        <v>0.9697450066155399</v>
+        <v>1.019171751827567</v>
       </c>
       <c r="E24">
-        <v>0.9745311342148545</v>
+        <v>1.026656682413227</v>
       </c>
       <c r="F24">
-        <v>0.9734691853505739</v>
+        <v>1.033625116891363</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9859859895566766</v>
+        <v>1.02321938860577</v>
       </c>
       <c r="K24">
-        <v>0.984325115803999</v>
+        <v>1.02260160821347</v>
       </c>
       <c r="L24">
-        <v>0.9890207778897977</v>
+        <v>1.030059676029977</v>
       </c>
       <c r="M24">
-        <v>0.9879788012504294</v>
+        <v>1.037003486841567</v>
       </c>
       <c r="N24">
-        <v>0.9986334015827812</v>
+        <v>1.011698387960088</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9664749177317324</v>
+        <v>1.018817244504749</v>
       </c>
       <c r="D25">
-        <v>0.9777225190702975</v>
+        <v>1.020840617249542</v>
       </c>
       <c r="E25">
-        <v>0.9829550308834728</v>
+        <v>1.028424108096125</v>
       </c>
       <c r="F25">
-        <v>0.9832036283662594</v>
+        <v>1.035687152496668</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9921857165288229</v>
+        <v>1.024514266927051</v>
       </c>
       <c r="K25">
-        <v>0.9906767974917594</v>
+        <v>1.02394091389106</v>
       </c>
       <c r="L25">
-        <v>0.9958238394660497</v>
+        <v>1.031499999575048</v>
       </c>
       <c r="M25">
-        <v>0.9960684053320341</v>
+        <v>1.038740036470138</v>
       </c>
       <c r="N25">
-        <v>1.000830715978771</v>
+        <v>1.012144275226148</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_164/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_164/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.020349605984689</v>
+        <v>0.9739339180554054</v>
       </c>
       <c r="D2">
-        <v>1.022174629359064</v>
+        <v>0.9838464233272357</v>
       </c>
       <c r="E2">
-        <v>1.029836972115252</v>
+        <v>0.9894204082009773</v>
       </c>
       <c r="F2">
-        <v>1.037336229550243</v>
+        <v>0.9906743464357204</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.02554721649973</v>
+        <v>0.9969232293530602</v>
       </c>
       <c r="K2">
-        <v>1.025009786906153</v>
+        <v>0.9955354867939599</v>
       </c>
       <c r="L2">
-        <v>1.032649726007894</v>
+        <v>1.001029128147641</v>
       </c>
       <c r="M2">
-        <v>1.040127404791578</v>
+        <v>1.002265149733667</v>
       </c>
       <c r="N2">
-        <v>1.012499121358909</v>
+        <v>1.002506338836173</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.021463424500027</v>
+        <v>0.9791785626659314</v>
       </c>
       <c r="D3">
-        <v>1.023144942643183</v>
+        <v>0.9881670962117088</v>
       </c>
       <c r="E3">
-        <v>1.030864681332056</v>
+        <v>0.9939815175982829</v>
       </c>
       <c r="F3">
-        <v>1.038536172828092</v>
+        <v>0.9959450139106526</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.026297326841434</v>
+        <v>1.00025339627942</v>
       </c>
       <c r="K3">
-        <v>1.025786262692901</v>
+        <v>0.9989536541660715</v>
       </c>
       <c r="L3">
-        <v>1.03348507388885</v>
+        <v>1.004691989681976</v>
       </c>
       <c r="M3">
-        <v>1.041136101883477</v>
+        <v>1.006630043327909</v>
       </c>
       <c r="N3">
-        <v>1.012756310177493</v>
+        <v>1.003681905316705</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.022184695731987</v>
+        <v>0.9824984031185821</v>
       </c>
       <c r="D4">
-        <v>1.023773588947807</v>
+        <v>0.990908462927633</v>
       </c>
       <c r="E4">
-        <v>1.031530533551314</v>
+        <v>0.9968752724198121</v>
       </c>
       <c r="F4">
-        <v>1.039313808765389</v>
+        <v>0.9992892793052266</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.026782745325733</v>
+        <v>1.002360650093781</v>
       </c>
       <c r="K4">
-        <v>1.026288871349019</v>
+        <v>1.001117867582828</v>
       </c>
       <c r="L4">
-        <v>1.034025853867295</v>
+        <v>1.007011557026559</v>
       </c>
       <c r="M4">
-        <v>1.04178942196542</v>
+        <v>1.009396289674873</v>
       </c>
       <c r="N4">
-        <v>1.012922514777585</v>
+        <v>1.004424625327858</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.022488051932126</v>
+        <v>0.9838771510913598</v>
       </c>
       <c r="D5">
-        <v>1.024038060559988</v>
+        <v>0.99204844114202</v>
       </c>
       <c r="E5">
-        <v>1.031810662680135</v>
+        <v>0.9980785898028931</v>
       </c>
       <c r="F5">
-        <v>1.03964101271398</v>
+        <v>1.000680041221121</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.026986826549574</v>
+        <v>1.003235586170117</v>
       </c>
       <c r="K5">
-        <v>1.026500210362561</v>
+        <v>1.002016755206788</v>
       </c>
       <c r="L5">
-        <v>1.034253258650684</v>
+        <v>1.007975076079336</v>
       </c>
       <c r="M5">
-        <v>1.042064227717361</v>
+        <v>1.010545871323208</v>
       </c>
       <c r="N5">
-        <v>1.012992335863613</v>
+        <v>1.004732714373155</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.022538994635924</v>
+        <v>0.9841076782633267</v>
       </c>
       <c r="D6">
-        <v>1.024082477569908</v>
+        <v>0.9922391308202969</v>
       </c>
       <c r="E6">
-        <v>1.031857709606912</v>
+        <v>0.998279872996308</v>
       </c>
       <c r="F6">
-        <v>1.039695968466208</v>
+        <v>1.000912686003805</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.02702109334905</v>
+        <v>1.003381861773516</v>
       </c>
       <c r="K6">
-        <v>1.026535697595033</v>
+        <v>1.002167052762828</v>
       </c>
       <c r="L6">
-        <v>1.034291444486444</v>
+        <v>1.008136186650679</v>
       </c>
       <c r="M6">
-        <v>1.042110377614219</v>
+        <v>1.010738124324083</v>
       </c>
       <c r="N6">
-        <v>1.013004056116885</v>
+        <v>1.004784204609149</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.022188748665937</v>
+        <v>0.9825168915073215</v>
       </c>
       <c r="D7">
-        <v>1.023777122089088</v>
+        <v>0.9909237437779033</v>
       </c>
       <c r="E7">
-        <v>1.031534275845472</v>
+        <v>0.9968914024091701</v>
       </c>
       <c r="F7">
-        <v>1.039318179757126</v>
+        <v>0.9993079214547371</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.026785472224582</v>
+        <v>1.002372383508944</v>
       </c>
       <c r="K7">
-        <v>1.02629169510493</v>
+        <v>1.0011299210151</v>
       </c>
       <c r="L7">
-        <v>1.034028892221837</v>
+        <v>1.007024476693041</v>
       </c>
       <c r="M7">
-        <v>1.04179309334369</v>
+        <v>1.009411702161698</v>
       </c>
       <c r="N7">
-        <v>1.012923447932227</v>
+        <v>1.004428758148761</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.020725911381005</v>
+        <v>0.9757221181328661</v>
       </c>
       <c r="D8">
-        <v>1.022502387893733</v>
+        <v>0.985318207346867</v>
       </c>
       <c r="E8">
-        <v>1.030184114099451</v>
+        <v>0.9909741336679676</v>
       </c>
       <c r="F8">
-        <v>1.037741509306101</v>
+        <v>0.9924697260794504</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.025800710116415</v>
+        <v>0.9980588004228642</v>
       </c>
       <c r="K8">
-        <v>1.02527216389456</v>
+        <v>0.9967007953376511</v>
       </c>
       <c r="L8">
-        <v>1.032931983170498</v>
+        <v>1.002277770218402</v>
       </c>
       <c r="M8">
-        <v>1.040468169287144</v>
+        <v>1.003752675219149</v>
       </c>
       <c r="N8">
-        <v>1.012586083693492</v>
+        <v>1.002907434859357</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.018152436874262</v>
+        <v>0.9631473904311229</v>
       </c>
       <c r="D9">
-        <v>1.020262189021229</v>
+        <v>0.9749984595694842</v>
       </c>
       <c r="E9">
-        <v>1.027811508835152</v>
+        <v>0.9800787628810544</v>
       </c>
       <c r="F9">
-        <v>1.034972331664744</v>
+        <v>0.9798800547816752</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.024065790219161</v>
+        <v>0.990072164408437</v>
       </c>
       <c r="K9">
-        <v>1.023476974988261</v>
+        <v>0.988510626130357</v>
       </c>
       <c r="L9">
-        <v>1.03100103196237</v>
+        <v>0.9935035345394319</v>
       </c>
       <c r="M9">
-        <v>1.038138265477069</v>
+        <v>0.9933082227531236</v>
       </c>
       <c r="N9">
-        <v>1.011989974284119</v>
+        <v>1.000082133369635</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.016439591257138</v>
+        <v>0.9543050242191858</v>
       </c>
       <c r="D10">
-        <v>1.018772792231163</v>
+        <v>0.9677830845505778</v>
       </c>
       <c r="E10">
-        <v>1.026234173601192</v>
+        <v>0.9724591158635084</v>
       </c>
       <c r="F10">
-        <v>1.033132319420463</v>
+        <v>0.9710744935318584</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.022909411080321</v>
+        <v>0.9844567181791076</v>
       </c>
       <c r="K10">
-        <v>1.022281092265943</v>
+        <v>0.9827594526585892</v>
       </c>
       <c r="L10">
-        <v>1.029715031074178</v>
+        <v>0.9873440943613375</v>
       </c>
       <c r="M10">
-        <v>1.036588195265998</v>
+        <v>0.9859864131628151</v>
       </c>
       <c r="N10">
-        <v>1.011591480050356</v>
+        <v>0.9980907755360846</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.015698565473324</v>
+        <v>0.9503536947344587</v>
       </c>
       <c r="D11">
-        <v>1.018128832288675</v>
+        <v>0.9645697266795777</v>
       </c>
       <c r="E11">
-        <v>1.025552212411625</v>
+        <v>0.9690651349542427</v>
       </c>
       <c r="F11">
-        <v>1.032337016077355</v>
+        <v>0.9671515655035888</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.022408739773229</v>
+        <v>0.9819482954774919</v>
       </c>
       <c r="K11">
-        <v>1.021763476684016</v>
+        <v>0.9801922337873691</v>
       </c>
       <c r="L11">
-        <v>1.029158484755442</v>
+        <v>0.9845950076463933</v>
       </c>
       <c r="M11">
-        <v>1.035917752253727</v>
+        <v>0.9827207311547302</v>
       </c>
       <c r="N11">
-        <v>1.011418671126738</v>
+        <v>0.9972002938187401</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.01542341187873</v>
+        <v>0.9488663138146323</v>
       </c>
       <c r="D12">
-        <v>1.01788978085279</v>
+        <v>0.9633618818567075</v>
       </c>
       <c r="E12">
-        <v>1.02529905698684</v>
+        <v>0.9677892960362587</v>
       </c>
       <c r="F12">
-        <v>1.032041819855413</v>
+        <v>0.9656767388361307</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.022222775200686</v>
+        <v>0.9810042683848796</v>
       </c>
       <c r="K12">
-        <v>1.021571242525713</v>
+        <v>0.979226362286223</v>
       </c>
       <c r="L12">
-        <v>1.028951803568308</v>
+        <v>0.9835607618678942</v>
       </c>
       <c r="M12">
-        <v>1.035668831736868</v>
+        <v>0.9814924462070695</v>
       </c>
       <c r="N12">
-        <v>1.0113544434857</v>
+        <v>0.9968650449899178</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.015482428912444</v>
+        <v>0.949186274349748</v>
       </c>
       <c r="D13">
-        <v>1.017941051683968</v>
+        <v>0.9636216289596022</v>
       </c>
       <c r="E13">
-        <v>1.025353352659628</v>
+        <v>0.9680636700690862</v>
       </c>
       <c r="F13">
-        <v>1.03210513073432</v>
+        <v>0.9659939134488753</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.022262664917883</v>
+        <v>0.9812073338987056</v>
       </c>
       <c r="K13">
-        <v>1.021612475990709</v>
+        <v>0.9794341137361686</v>
       </c>
       <c r="L13">
-        <v>1.028996135357016</v>
+        <v>0.9837832179178122</v>
       </c>
       <c r="M13">
-        <v>1.035722220977581</v>
+        <v>0.9817566244037278</v>
       </c>
       <c r="N13">
-        <v>1.011368222283054</v>
+        <v>0.9969371641028597</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.015675819230671</v>
+        <v>0.9502311566100226</v>
       </c>
       <c r="D14">
-        <v>1.018109069286104</v>
+        <v>0.9644701821208438</v>
       </c>
       <c r="E14">
-        <v>1.02553128333795</v>
+        <v>0.968959988796808</v>
       </c>
       <c r="F14">
-        <v>1.032312610686158</v>
+        <v>0.9670300234083741</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.022393367741351</v>
+        <v>0.9818705170259431</v>
       </c>
       <c r="K14">
-        <v>1.021747585910623</v>
+        <v>0.980112649775444</v>
       </c>
       <c r="L14">
-        <v>1.029141399509654</v>
+        <v>0.984509788875499</v>
       </c>
       <c r="M14">
-        <v>1.035897174126639</v>
+        <v>0.982619517916645</v>
       </c>
       <c r="N14">
-        <v>1.011413362839077</v>
+        <v>0.9971726750198461</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.015794986131469</v>
+        <v>0.9508722951468657</v>
       </c>
       <c r="D15">
-        <v>1.018212609549888</v>
+        <v>0.9649910864446117</v>
       </c>
       <c r="E15">
-        <v>1.025640932876699</v>
+        <v>0.9695102013884469</v>
       </c>
       <c r="F15">
-        <v>1.032440474383947</v>
+        <v>0.9676660268722844</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.022473898990778</v>
+        <v>0.9822774748465309</v>
       </c>
       <c r="K15">
-        <v>1.02183083573628</v>
+        <v>0.9805290663550015</v>
       </c>
       <c r="L15">
-        <v>1.029230907489905</v>
+        <v>0.9849556908672804</v>
       </c>
       <c r="M15">
-        <v>1.036004983346332</v>
+        <v>0.9831491225519234</v>
       </c>
       <c r="N15">
-        <v>1.011441170298477</v>
+        <v>0.9973171791502102</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.016488784264059</v>
+        <v>0.9545645732834626</v>
       </c>
       <c r="D16">
-        <v>1.018815549923921</v>
+        <v>0.9679943947040158</v>
       </c>
       <c r="E16">
-        <v>1.026279454913947</v>
+        <v>0.9726822905245596</v>
       </c>
       <c r="F16">
-        <v>1.033185131246976</v>
+        <v>0.9713324312498544</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.02294263998695</v>
+        <v>0.9846215125177398</v>
       </c>
       <c r="K16">
-        <v>1.022315449107855</v>
+        <v>0.9829281484734346</v>
       </c>
       <c r="L16">
-        <v>1.029751973530508</v>
+        <v>0.9875247482891407</v>
       </c>
       <c r="M16">
-        <v>1.036632706073421</v>
+        <v>0.9862010588685212</v>
       </c>
       <c r="N16">
-        <v>1.011602943375499</v>
+        <v>0.9981492589842389</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.016924158244312</v>
+        <v>0.9568469732641729</v>
       </c>
       <c r="D17">
-        <v>1.019194015107871</v>
+        <v>0.9698538489346434</v>
       </c>
       <c r="E17">
-        <v>1.026680259955463</v>
+        <v>0.9746460804790854</v>
       </c>
       <c r="F17">
-        <v>1.033652618342809</v>
+        <v>0.9736020272964472</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.023236681640314</v>
+        <v>0.9860707785197982</v>
       </c>
       <c r="K17">
-        <v>1.022619490252655</v>
+        <v>0.9844119347781299</v>
       </c>
       <c r="L17">
-        <v>1.030078904773804</v>
+        <v>0.9891137556682005</v>
       </c>
       <c r="M17">
-        <v>1.037026659793874</v>
+        <v>0.9880893006425405</v>
       </c>
       <c r="N17">
-        <v>1.011704350266305</v>
+        <v>0.9986634806475672</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.017178167073867</v>
+        <v>0.9581665281393945</v>
       </c>
       <c r="D18">
-        <v>1.019414859951583</v>
+        <v>0.9709299080944294</v>
       </c>
       <c r="E18">
-        <v>1.026914142668853</v>
+        <v>0.9757824641507015</v>
       </c>
       <c r="F18">
-        <v>1.033925434066817</v>
+        <v>0.9749153068732684</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.023408195856578</v>
+        <v>0.9869087441311395</v>
       </c>
       <c r="K18">
-        <v>1.022796852535647</v>
+        <v>0.9852700331108301</v>
       </c>
       <c r="L18">
-        <v>1.030269627252778</v>
+        <v>0.9900327410300411</v>
       </c>
       <c r="M18">
-        <v>1.037256518498098</v>
+        <v>0.9891815541800238</v>
       </c>
       <c r="N18">
-        <v>1.011763474262471</v>
+        <v>0.9989607131980799</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.01726478815901</v>
+        <v>0.9586145094487754</v>
       </c>
       <c r="D19">
-        <v>1.019490178028921</v>
+        <v>0.971295395374514</v>
       </c>
       <c r="E19">
-        <v>1.026993907584169</v>
+        <v>0.9761684320711987</v>
       </c>
       <c r="F19">
-        <v>1.034018480673861</v>
+        <v>0.9753613470432093</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.023466678575723</v>
+        <v>0.9871932405235417</v>
       </c>
       <c r="K19">
-        <v>1.022857331926621</v>
+        <v>0.9855613938723421</v>
       </c>
       <c r="L19">
-        <v>1.030334663618961</v>
+        <v>0.9903447817887113</v>
       </c>
       <c r="M19">
-        <v>1.037334906630304</v>
+        <v>0.9895524640236817</v>
       </c>
       <c r="N19">
-        <v>1.011783629786303</v>
+        <v>0.999061610264193</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.016877440273005</v>
+        <v>0.956603315527679</v>
       </c>
       <c r="D20">
-        <v>1.0191533998076</v>
+        <v>0.9696552354287721</v>
       </c>
       <c r="E20">
-        <v>1.02663724703468</v>
+        <v>0.9744363282993089</v>
       </c>
       <c r="F20">
-        <v>1.033602447089505</v>
+        <v>0.9733596189923401</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.023205133269757</v>
+        <v>0.9859160530782668</v>
       </c>
       <c r="K20">
-        <v>1.022586867424132</v>
+        <v>0.9842535058902638</v>
       </c>
       <c r="L20">
-        <v>1.030043825145954</v>
+        <v>0.9889440882832727</v>
       </c>
       <c r="M20">
-        <v>1.036984384826868</v>
+        <v>0.9878876607139939</v>
       </c>
       <c r="N20">
-        <v>1.011693472844304</v>
+        <v>0.998608590954106</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.015618867949066</v>
+        <v>0.9499240189078848</v>
       </c>
       <c r="D21">
-        <v>1.018059588316606</v>
+        <v>0.9642207054777999</v>
       </c>
       <c r="E21">
-        <v>1.025478882902058</v>
+        <v>0.9686964718595021</v>
       </c>
       <c r="F21">
-        <v>1.032251507085556</v>
+        <v>0.9667254124590317</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.022354878825014</v>
+        <v>0.9816755715221407</v>
       </c>
       <c r="K21">
-        <v>1.021707798543563</v>
+        <v>0.979913183364331</v>
       </c>
       <c r="L21">
-        <v>1.029098621600024</v>
+        <v>0.9842962005037239</v>
       </c>
       <c r="M21">
-        <v>1.03584565170029</v>
+        <v>0.9823658467051904</v>
       </c>
       <c r="N21">
-        <v>1.011400071138333</v>
+        <v>0.9971034487926606</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.014828110722075</v>
+        <v>0.9456098964503667</v>
       </c>
       <c r="D22">
-        <v>1.017372698487876</v>
+        <v>0.9607208011953515</v>
       </c>
       <c r="E22">
-        <v>1.024751471951726</v>
+        <v>0.9649993373275217</v>
       </c>
       <c r="F22">
-        <v>1.031403360250183</v>
+        <v>0.9624513146193954</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.021820330742941</v>
+        <v>0.9789379119030608</v>
       </c>
       <c r="K22">
-        <v>1.021155274152924</v>
+        <v>0.9771127210958075</v>
       </c>
       <c r="L22">
-        <v>1.028504594244827</v>
+        <v>0.9812975813142115</v>
       </c>
       <c r="M22">
-        <v>1.035130332009973</v>
+        <v>0.9788052126728932</v>
       </c>
       <c r="N22">
-        <v>1.011215373908602</v>
+        <v>0.99613102409107</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.015247253587172</v>
+        <v>0.9479082104790477</v>
       </c>
       <c r="D23">
-        <v>1.017736752859941</v>
+        <v>0.9625843481704515</v>
       </c>
       <c r="E23">
-        <v>1.025137001161882</v>
+        <v>0.9669679618069444</v>
       </c>
       <c r="F23">
-        <v>1.031852861336366</v>
+        <v>0.9647272562872278</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.022103701023302</v>
+        <v>0.9803962363848757</v>
       </c>
       <c r="K23">
-        <v>1.02144816067351</v>
+        <v>0.9786043414662171</v>
       </c>
       <c r="L23">
-        <v>1.028819474860521</v>
+        <v>0.9828947214614399</v>
       </c>
       <c r="M23">
-        <v>1.035509475331173</v>
+        <v>0.9807015325512446</v>
       </c>
       <c r="N23">
-        <v>1.011313306599714</v>
+        <v>0.996649084817382</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.016898549919705</v>
+        <v>0.9567134501274058</v>
       </c>
       <c r="D24">
-        <v>1.019171751827567</v>
+        <v>0.9697450066155389</v>
       </c>
       <c r="E24">
-        <v>1.026656682413227</v>
+        <v>0.9745311342148533</v>
       </c>
       <c r="F24">
-        <v>1.033625116891363</v>
+        <v>0.9734691853505725</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.02321938860577</v>
+        <v>0.9859859895566755</v>
       </c>
       <c r="K24">
-        <v>1.02260160821347</v>
+        <v>0.9843251158039982</v>
       </c>
       <c r="L24">
-        <v>1.030059676029977</v>
+        <v>0.9890207778897965</v>
       </c>
       <c r="M24">
-        <v>1.037003486841567</v>
+        <v>0.9879788012504279</v>
       </c>
       <c r="N24">
-        <v>1.011698387960088</v>
+        <v>0.9986334015827809</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.018817244504749</v>
+        <v>0.9664749177317323</v>
       </c>
       <c r="D25">
-        <v>1.020840617249542</v>
+        <v>0.9777225190702971</v>
       </c>
       <c r="E25">
-        <v>1.028424108096125</v>
+        <v>0.9829550308834727</v>
       </c>
       <c r="F25">
-        <v>1.035687152496668</v>
+        <v>0.9832036283662596</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.024514266927051</v>
+        <v>0.9921857165288228</v>
       </c>
       <c r="K25">
-        <v>1.02394091389106</v>
+        <v>0.9906767974917592</v>
       </c>
       <c r="L25">
-        <v>1.031499999575048</v>
+        <v>0.9958238394660496</v>
       </c>
       <c r="M25">
-        <v>1.038740036470138</v>
+        <v>0.9960684053320342</v>
       </c>
       <c r="N25">
-        <v>1.012144275226148</v>
+        <v>1.000830715978771</v>
       </c>
     </row>
   </sheetData>
